--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H2">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.6900177029664</v>
+        <v>11.88831466666667</v>
       </c>
       <c r="N2">
-        <v>11.6900177029664</v>
+        <v>35.664944</v>
       </c>
       <c r="O2">
-        <v>0.1721566319709041</v>
+        <v>0.1647867559347935</v>
       </c>
       <c r="P2">
-        <v>0.1721566319709041</v>
+        <v>0.1715303447251208</v>
       </c>
       <c r="Q2">
-        <v>15.69359023990537</v>
+        <v>19.105282521472</v>
       </c>
       <c r="R2">
-        <v>15.69359023990537</v>
+        <v>171.947542693248</v>
       </c>
       <c r="S2">
-        <v>0.1721566319709041</v>
+        <v>0.1647867559347935</v>
       </c>
       <c r="T2">
-        <v>0.1721566319709041</v>
+        <v>0.1715303447251208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H3">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3396035182354</v>
+        <v>17.52633466666667</v>
       </c>
       <c r="N3">
-        <v>16.3396035182354</v>
+        <v>52.579004</v>
       </c>
       <c r="O3">
-        <v>0.2406301838812046</v>
+        <v>0.2429366915434531</v>
       </c>
       <c r="P3">
-        <v>0.2406301838812046</v>
+        <v>0.2528784198125617</v>
       </c>
       <c r="Q3">
-        <v>21.93555637068308</v>
+        <v>28.165941494752</v>
       </c>
       <c r="R3">
-        <v>21.93555637068308</v>
+        <v>253.493473452768</v>
       </c>
       <c r="S3">
-        <v>0.2406301838812046</v>
+        <v>0.2429366915434531</v>
       </c>
       <c r="T3">
-        <v>0.2406301838812046</v>
+        <v>0.2528784198125617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H4">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6007432075744</v>
+        <v>13.957045</v>
       </c>
       <c r="N4">
-        <v>12.6007432075744</v>
+        <v>41.871135</v>
       </c>
       <c r="O4">
-        <v>0.1855687105072377</v>
+        <v>0.1934619189071989</v>
       </c>
       <c r="P4">
-        <v>0.1855687105072377</v>
+        <v>0.2013789849377604</v>
       </c>
       <c r="Q4">
-        <v>16.91621908902356</v>
+        <v>22.42986456588</v>
       </c>
       <c r="R4">
-        <v>16.91621908902356</v>
+        <v>201.86878109292</v>
       </c>
       <c r="S4">
-        <v>0.1855687105072377</v>
+        <v>0.1934619189071989</v>
       </c>
       <c r="T4">
-        <v>0.1855687105072377</v>
+        <v>0.2013789849377604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H5">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.8216441652858</v>
+        <v>20.26311466666667</v>
       </c>
       <c r="N5">
-        <v>18.8216441652858</v>
+        <v>60.789344</v>
       </c>
       <c r="O5">
-        <v>0.2771827169113857</v>
+        <v>0.2808718497683384</v>
       </c>
       <c r="P5">
-        <v>0.2771827169113857</v>
+        <v>0.2923660032084714</v>
       </c>
       <c r="Q5">
-        <v>25.26764104868269</v>
+        <v>32.564122108672</v>
       </c>
       <c r="R5">
-        <v>25.26764104868269</v>
+        <v>293.077098978048</v>
       </c>
       <c r="S5">
-        <v>0.2771827169113857</v>
+        <v>0.2808718497683384</v>
       </c>
       <c r="T5">
-        <v>0.2771827169113857</v>
+        <v>0.2923660032084714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H6">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.451374326104011</v>
+        <v>8.508820500000001</v>
       </c>
       <c r="N6">
-        <v>8.451374326104011</v>
+        <v>17.017641</v>
       </c>
       <c r="O6">
-        <v>0.1244617567292676</v>
+        <v>0.1179427838462161</v>
       </c>
       <c r="P6">
-        <v>0.1244617567292676</v>
+        <v>0.08184624731608578</v>
       </c>
       <c r="Q6">
-        <v>11.34578312950515</v>
+        <v>13.674219108012</v>
       </c>
       <c r="R6">
-        <v>11.34578312950515</v>
+        <v>82.04531464807201</v>
       </c>
       <c r="S6">
-        <v>0.1244617567292676</v>
+        <v>0.1179427838462161</v>
       </c>
       <c r="T6">
-        <v>0.1244617567292676</v>
+        <v>0.08184624731608578</v>
       </c>
     </row>
   </sheetData>
